--- a/data/places.xlsx
+++ b/data/places.xlsx
@@ -243,7 +243,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +254,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -728,148 +721,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,6 +1224,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">

--- a/data/places.xlsx
+++ b/data/places.xlsx
@@ -5725,7 +5725,7 @@
         <v>4.9</v>
       </c>
       <c r="I129" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
@@ -6463,7 +6463,7 @@
         <v>4.9</v>
       </c>
       <c r="I147" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">

--- a/data/places.xlsx
+++ b/data/places.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>View_Count</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +525,11 @@
       <c r="I2" t="n">
         <v>4</v>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>gugongbowuyuan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -561,6 +571,11 @@
       <c r="I3" t="n">
         <v>5</v>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>jiuzhaigou.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -600,7 +615,12 @@
         <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>thu.jpg</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -643,6 +663,11 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>gugongbowuyuan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -684,6 +709,11 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>5.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -725,6 +755,11 @@
       <c r="I7" t="n">
         <v>9</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -766,6 +801,11 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>7.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -807,6 +847,11 @@
       <c r="I9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>qinshihuangbingmayong.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -848,6 +893,11 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>budalagong.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -889,6 +939,11 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>jiuzhaigou.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -930,6 +985,11 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>11.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -971,6 +1031,11 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1012,6 +1077,11 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1053,6 +1123,11 @@
       <c r="I15" t="n">
         <v>7</v>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>14.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1094,6 +1169,11 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>thu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1135,6 +1215,11 @@
       <c r="I17" t="n">
         <v>2</v>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>16.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1176,6 +1261,11 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1217,6 +1307,11 @@
       <c r="I19" t="n">
         <v>1</v>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>16.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1258,6 +1353,11 @@
       <c r="I20" t="n">
         <v>7</v>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>nanjingdaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1299,6 +1399,11 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>tiantan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1340,6 +1445,11 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>21.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1381,6 +1491,11 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>22.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1422,6 +1537,11 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>budalagong.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1463,6 +1583,11 @@
       <c r="I25" t="n">
         <v>1</v>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>11.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1504,6 +1629,11 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>25.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1545,6 +1675,11 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>qinshihuangbingmayong.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1586,6 +1721,11 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>jiuzhaigou.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1627,6 +1767,11 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>16.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1668,6 +1813,11 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>longmenshiku.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1709,6 +1859,11 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>12.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1750,6 +1905,11 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>31.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1791,6 +1951,11 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>32.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1832,6 +1997,11 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>13.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1873,6 +2043,11 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>nanjingdaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1914,6 +2089,11 @@
       <c r="I36" t="n">
         <v>0</v>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>35.png</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1955,6 +2135,11 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>36.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1996,6 +2181,11 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>xiamendaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2037,6 +2227,11 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>38.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2078,6 +2273,11 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>39.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2119,6 +2319,11 @@
       <c r="I41" t="n">
         <v>5</v>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>suzhouyuanlin.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2160,6 +2365,11 @@
       <c r="I42" t="n">
         <v>12</v>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>41.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2201,6 +2411,11 @@
       <c r="I43" t="n">
         <v>6</v>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>42.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2242,6 +2457,11 @@
       <c r="I44" t="n">
         <v>3</v>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>kongmiao.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2283,6 +2503,11 @@
       <c r="I45" t="n">
         <v>10</v>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>daochengyading.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2324,6 +2549,11 @@
       <c r="I46" t="n">
         <v>4</v>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>45.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2365,6 +2595,11 @@
       <c r="I47" t="n">
         <v>8</v>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>39.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2406,6 +2641,11 @@
       <c r="I48" t="n">
         <v>2</v>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>22.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2447,6 +2687,11 @@
       <c r="I49" t="n">
         <v>7</v>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>48.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2488,6 +2733,11 @@
       <c r="I50" t="n">
         <v>9</v>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>36.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2529,6 +2779,11 @@
       <c r="I51" t="n">
         <v>15</v>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>50.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2570,6 +2825,11 @@
       <c r="I52" t="n">
         <v>8</v>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>51.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2611,6 +2871,11 @@
       <c r="I53" t="n">
         <v>10</v>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>wutaishan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2652,6 +2917,11 @@
       <c r="I54" t="n">
         <v>4</v>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>53.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2693,6 +2963,11 @@
       <c r="I55" t="n">
         <v>6</v>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>54.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2734,6 +3009,11 @@
       <c r="I56" t="n">
         <v>9</v>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>yuelushanfengjingmingshengqu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2775,6 +3055,11 @@
       <c r="I57" t="n">
         <v>7</v>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>56.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2816,6 +3101,11 @@
       <c r="I58" t="n">
         <v>12</v>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>57.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2857,6 +3147,11 @@
       <c r="I59" t="n">
         <v>5</v>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>58.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2898,6 +3193,11 @@
       <c r="I60" t="n">
         <v>11</v>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>putuoshanfengjingqu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2939,6 +3239,11 @@
       <c r="I61" t="n">
         <v>10</v>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>laoshanfengjingqu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2980,6 +3285,11 @@
       <c r="I62" t="n">
         <v>6</v>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>61.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3021,6 +3331,11 @@
       <c r="I63" t="n">
         <v>8</v>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>62.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3062,6 +3377,11 @@
       <c r="I64" t="n">
         <v>7</v>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>63.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3103,6 +3423,11 @@
       <c r="I65" t="n">
         <v>9</v>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>huazhongkejidaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3144,6 +3469,11 @@
       <c r="I66" t="n">
         <v>10</v>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>190.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3185,6 +3515,11 @@
       <c r="I67" t="n">
         <v>8</v>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>66.png</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3226,6 +3561,11 @@
       <c r="I68" t="n">
         <v>8</v>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>51.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3267,6 +3607,11 @@
       <c r="I69" t="n">
         <v>12</v>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>68.png</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3308,6 +3653,11 @@
       <c r="I70" t="n">
         <v>7</v>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>69.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3349,6 +3699,11 @@
       <c r="I71" t="n">
         <v>9</v>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>longhushanjingqu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3390,6 +3745,11 @@
       <c r="I72" t="n">
         <v>13</v>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>71.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3431,6 +3791,11 @@
       <c r="I73" t="n">
         <v>5</v>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>72.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3472,6 +3837,11 @@
       <c r="I74" t="n">
         <v>11</v>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>73.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3513,6 +3883,11 @@
       <c r="I75" t="n">
         <v>9</v>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>74.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3554,6 +3929,11 @@
       <c r="I76" t="n">
         <v>8</v>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>zhongguokexuejishudaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3595,6 +3975,11 @@
       <c r="I77" t="n">
         <v>10</v>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>76.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3636,6 +4021,11 @@
       <c r="I78" t="n">
         <v>6</v>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>77.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3677,6 +4067,11 @@
       <c r="I79" t="n">
         <v>12</v>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>78.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3718,6 +4113,11 @@
       <c r="I80" t="n">
         <v>7</v>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>79.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3759,6 +4159,11 @@
       <c r="I81" t="n">
         <v>9</v>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>80.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3800,6 +4205,11 @@
       <c r="I82" t="n">
         <v>5</v>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>81.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3841,6 +4251,11 @@
       <c r="I83" t="n">
         <v>11</v>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>wudangshan.png</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3882,6 +4297,11 @@
       <c r="I84" t="n">
         <v>8</v>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>83.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3923,6 +4343,11 @@
       <c r="I85" t="n">
         <v>7</v>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>84.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3964,6 +4389,11 @@
       <c r="I86" t="n">
         <v>6</v>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>85.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4005,6 +4435,11 @@
       <c r="I87" t="n">
         <v>10</v>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>86.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4046,6 +4481,11 @@
       <c r="I88" t="n">
         <v>7</v>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>87.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4087,6 +4527,11 @@
       <c r="I89" t="n">
         <v>9</v>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>88.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4128,6 +4573,11 @@
       <c r="I90" t="n">
         <v>8</v>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>93.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4169,6 +4619,11 @@
       <c r="I91" t="n">
         <v>11</v>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>90.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4210,6 +4665,11 @@
       <c r="I92" t="n">
         <v>7</v>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>91.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4251,6 +4711,11 @@
       <c r="I93" t="n">
         <v>10</v>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>92.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4292,6 +4757,11 @@
       <c r="I94" t="n">
         <v>8</v>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>93.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4333,6 +4803,11 @@
       <c r="I95" t="n">
         <v>12</v>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>gulangyu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4374,6 +4849,11 @@
       <c r="I96" t="n">
         <v>6</v>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>95.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4415,6 +4895,11 @@
       <c r="I97" t="n">
         <v>10</v>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>96.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4456,6 +4941,11 @@
       <c r="I98" t="n">
         <v>7</v>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>97.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4497,6 +4987,11 @@
       <c r="I99" t="n">
         <v>11</v>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>98.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4538,6 +5033,11 @@
       <c r="I100" t="n">
         <v>6</v>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>102.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4579,6 +5079,11 @@
       <c r="I101" t="n">
         <v>10</v>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>100.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4620,6 +5125,11 @@
       <c r="I102" t="n">
         <v>14</v>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>gagongshanfengjingmingshengqu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4661,6 +5171,11 @@
       <c r="I103" t="n">
         <v>7</v>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>102.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4702,6 +5217,11 @@
       <c r="I104" t="n">
         <v>13</v>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>103.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4743,6 +5263,11 @@
       <c r="I105" t="n">
         <v>6</v>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>106.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4784,6 +5309,11 @@
       <c r="I106" t="n">
         <v>12</v>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>105.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4825,6 +5355,11 @@
       <c r="I107" t="n">
         <v>8</v>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>106.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4864,7 +5399,12 @@
         <v>4.8</v>
       </c>
       <c r="I108" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>lushanfengjingmingshengqu.jpeg</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4907,6 +5447,11 @@
       <c r="I109" t="n">
         <v>9</v>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>111.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4948,6 +5493,11 @@
       <c r="I110" t="n">
         <v>8</v>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>109.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4989,6 +5539,11 @@
       <c r="I111" t="n">
         <v>11</v>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>110.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5030,6 +5585,11 @@
       <c r="I112" t="n">
         <v>6</v>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>111.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5071,6 +5631,11 @@
       <c r="I113" t="n">
         <v>13</v>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>xuankongsi.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5112,6 +5677,11 @@
       <c r="I114" t="n">
         <v>9</v>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>113.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5153,6 +5723,11 @@
       <c r="I115" t="n">
         <v>5</v>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>111.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5194,6 +5769,11 @@
       <c r="I116" t="n">
         <v>7</v>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>115.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5233,7 +5813,12 @@
         <v>4.9</v>
       </c>
       <c r="I117" t="n">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>yuanyangtitian.jpg</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5276,6 +5861,11 @@
       <c r="I118" t="n">
         <v>7</v>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>117.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5317,6 +5907,11 @@
       <c r="I119" t="n">
         <v>6</v>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>118.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5358,6 +5953,11 @@
       <c r="I120" t="n">
         <v>10</v>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>119.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5399,6 +5999,11 @@
       <c r="I121" t="n">
         <v>5</v>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>123.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5440,6 +6045,11 @@
       <c r="I122" t="n">
         <v>8</v>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>121.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5479,7 +6089,12 @@
         <v>4.8</v>
       </c>
       <c r="I123" t="n">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>sedawumingfoxueyuan.jpg</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -5522,6 +6137,11 @@
       <c r="I124" t="n">
         <v>6</v>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>123.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5563,6 +6183,11 @@
       <c r="I125" t="n">
         <v>11</v>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>hongcun.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5604,6 +6229,11 @@
       <c r="I126" t="n">
         <v>9</v>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>125.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5645,6 +6275,11 @@
       <c r="I127" t="n">
         <v>7</v>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>131.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5686,6 +6321,11 @@
       <c r="I128" t="n">
         <v>8</v>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>127.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5725,7 +6365,12 @@
         <v>4.9</v>
       </c>
       <c r="I129" t="n">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>nianbaoyuze.jpg</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5768,6 +6413,11 @@
       <c r="I130" t="n">
         <v>9</v>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>beijingshifandaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5809,6 +6459,11 @@
       <c r="I131" t="n">
         <v>10</v>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>130.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5850,6 +6505,11 @@
       <c r="I132" t="n">
         <v>8</v>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>131.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5891,6 +6551,11 @@
       <c r="I133" t="n">
         <v>7</v>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>132.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5932,6 +6597,11 @@
       <c r="I134" t="n">
         <v>6</v>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>133.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5973,6 +6643,11 @@
       <c r="I135" t="n">
         <v>11</v>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>134.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6014,6 +6689,11 @@
       <c r="I136" t="n">
         <v>7</v>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>135.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6055,6 +6735,11 @@
       <c r="I137" t="n">
         <v>13</v>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>136.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -6096,6 +6781,11 @@
       <c r="I138" t="n">
         <v>8</v>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>137.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -6137,6 +6827,11 @@
       <c r="I139" t="n">
         <v>10</v>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>gannanlabulengsi.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -6178,6 +6873,11 @@
       <c r="I140" t="n">
         <v>9</v>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>beijinghangkonghangtiandaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -6219,6 +6919,11 @@
       <c r="I141" t="n">
         <v>12</v>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>140.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -6260,6 +6965,11 @@
       <c r="I142" t="n">
         <v>7</v>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>141.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -6299,7 +7009,12 @@
         <v>4.6</v>
       </c>
       <c r="I143" t="n">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>gannanlabulengsi.jpg</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6342,6 +7057,11 @@
       <c r="I144" t="n">
         <v>8</v>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>143.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6383,6 +7103,11 @@
       <c r="I145" t="n">
         <v>14</v>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>121.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6424,6 +7149,11 @@
       <c r="I146" t="n">
         <v>7</v>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>145.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6465,6 +7195,11 @@
       <c r="I147" t="n">
         <v>28</v>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>dukugonglu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6506,6 +7241,11 @@
       <c r="I148" t="n">
         <v>9</v>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>zhongguochuanmeidaxue.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6547,6 +7287,11 @@
       <c r="I149" t="n">
         <v>10</v>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>148.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6588,6 +7333,11 @@
       <c r="I150" t="n">
         <v>8</v>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>149.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6629,6 +7379,11 @@
       <c r="I151" t="n">
         <v>11</v>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>150.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6670,6 +7425,11 @@
       <c r="I152" t="n">
         <v>12</v>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>zhuozhengyuan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6711,6 +7471,11 @@
       <c r="I153" t="n">
         <v>11</v>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>152.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6752,6 +7517,11 @@
       <c r="I154" t="n">
         <v>13</v>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>14.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -6793,6 +7563,11 @@
       <c r="I155" t="n">
         <v>10</v>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>154.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6834,6 +7609,11 @@
       <c r="I156" t="n">
         <v>9</v>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>155.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6875,6 +7655,11 @@
       <c r="I157" t="n">
         <v>12</v>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>193.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6916,6 +7701,11 @@
       <c r="I158" t="n">
         <v>13</v>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>gulangyu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6957,6 +7747,11 @@
       <c r="I159" t="n">
         <v>11</v>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>62.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6998,6 +7793,11 @@
       <c r="I160" t="n">
         <v>8</v>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>159.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -7039,6 +7839,11 @@
       <c r="I161" t="n">
         <v>11</v>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>160.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -7080,6 +7885,11 @@
       <c r="I162" t="n">
         <v>14</v>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>178.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -7119,7 +7929,12 @@
         <v>4.9</v>
       </c>
       <c r="I163" t="n">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>qinshihuangbingmayong.jpg</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -7162,6 +7977,11 @@
       <c r="I164" t="n">
         <v>10</v>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>gulangyu.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -7203,6 +8023,11 @@
       <c r="I165" t="n">
         <v>12</v>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>zhuozhengyuan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -7244,6 +8069,11 @@
       <c r="I166" t="n">
         <v>11</v>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>165.png</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -7285,6 +8115,11 @@
       <c r="I167" t="n">
         <v>9</v>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>tiantan.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -7326,6 +8161,11 @@
       <c r="I168" t="n">
         <v>8</v>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>62.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -7367,6 +8207,11 @@
       <c r="I169" t="n">
         <v>7</v>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>168.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -7408,6 +8253,11 @@
       <c r="I170" t="n">
         <v>13</v>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>longmenshiku.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -7449,6 +8299,11 @@
       <c r="I171" t="n">
         <v>12</v>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>38.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7490,6 +8345,11 @@
       <c r="I172" t="n">
         <v>10</v>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>38.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7531,6 +8391,11 @@
       <c r="I173" t="n">
         <v>9</v>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>115.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7572,6 +8437,11 @@
       <c r="I174" t="n">
         <v>8</v>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>173.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7613,6 +8483,11 @@
       <c r="I175" t="n">
         <v>7</v>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>174.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7654,6 +8529,11 @@
       <c r="I176" t="n">
         <v>10</v>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>127.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7695,6 +8575,11 @@
       <c r="I177" t="n">
         <v>9</v>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>176.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7736,6 +8621,11 @@
       <c r="I178" t="n">
         <v>8</v>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>177.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7777,6 +8667,11 @@
       <c r="I179" t="n">
         <v>11</v>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>178.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7818,6 +8713,11 @@
       <c r="I180" t="n">
         <v>13</v>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>179.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7859,6 +8759,11 @@
       <c r="I181" t="n">
         <v>10</v>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>180.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7898,7 +8803,12 @@
         <v>4.5</v>
       </c>
       <c r="I182" t="n">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>jinggangshan.png</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -7939,7 +8849,12 @@
         <v>4.4</v>
       </c>
       <c r="I183" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>shaoshan.jpg</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -7982,6 +8897,11 @@
       <c r="I184" t="n">
         <v>7</v>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>xibaipo.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -8023,6 +8943,11 @@
       <c r="I185" t="n">
         <v>14</v>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>qufusankong.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -8064,6 +8989,11 @@
       <c r="I186" t="n">
         <v>10</v>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>185.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -8105,6 +9035,11 @@
       <c r="I187" t="n">
         <v>11</v>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>186.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -8146,6 +9081,11 @@
       <c r="I188" t="n">
         <v>13</v>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>187.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -8187,6 +9127,11 @@
       <c r="I189" t="n">
         <v>9</v>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>188.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -8228,6 +9173,11 @@
       <c r="I190" t="n">
         <v>8</v>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>189.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -8269,6 +9219,11 @@
       <c r="I191" t="n">
         <v>10</v>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>190.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -8310,6 +9265,11 @@
       <c r="I192" t="n">
         <v>11</v>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>191.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -8351,6 +9311,11 @@
       <c r="I193" t="n">
         <v>9</v>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>193.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -8392,6 +9357,11 @@
       <c r="I194" t="n">
         <v>10</v>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>193.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -8433,6 +9403,11 @@
       <c r="I195" t="n">
         <v>13</v>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>194.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -8474,6 +9449,11 @@
       <c r="I196" t="n">
         <v>12</v>
       </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>195.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -8513,7 +9493,12 @@
         <v>4.9</v>
       </c>
       <c r="I197" t="n">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>fanjingshan.jpg</t>
+        </is>
       </c>
     </row>
     <row r="198">
@@ -8556,6 +9541,11 @@
       <c r="I198" t="n">
         <v>10</v>
       </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>197.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -8597,6 +9587,11 @@
       <c r="I199" t="n">
         <v>13</v>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>198.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -8638,6 +9633,11 @@
       <c r="I200" t="n">
         <v>12</v>
       </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>199.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -8677,7 +9677,12 @@
         <v>4.5</v>
       </c>
       <c r="I201" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>xijiangqianhumiaozhai.jpg</t>
+        </is>
       </c>
     </row>
   </sheetData>
